--- a/Dados/R2_IS_normal.xlsx
+++ b/Dados/R2_IS_normal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Datathon_2023\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18474160-20EB-4A06-93F2-23141907F0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA602F31-C238-4837-B208-E01AB06EEF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="19185" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -137,7 +137,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,268 +440,269 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E15"/>
+      <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2">
+        <v>2.086264925283432</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-1.3166409934942001</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.98036550556600544</v>
+      </c>
+      <c r="F2" s="2">
         <v>0.95270196557555309</v>
       </c>
-      <c r="C2" s="2">
-        <v>2.086264925283432</v>
-      </c>
-      <c r="D2" s="2">
-        <v>-1.3166409934942001</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.98036550556600544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2">
+        <v>2.169655869795672</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.96741160767189749</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.48791110365963292</v>
+      </c>
+      <c r="F3" s="2">
         <v>1.0422881666931061</v>
       </c>
-      <c r="C3" s="2">
-        <v>2.169655869795672</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.96741160767189749</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.48791110365963292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2">
+        <v>1.486956932570793</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.52799045917972798</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-0.207663652465051</v>
+      </c>
+      <c r="F4" s="2">
         <v>0.3888658214056262</v>
       </c>
-      <c r="C4" s="2">
-        <v>1.486956932570793</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.52799045917972798</v>
-      </c>
-      <c r="E4" s="2">
-        <v>-0.207663652465051</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2">
+        <v>1.707723686961671</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.27213127782480528</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9.9863143608258653E-2</v>
+      </c>
+      <c r="F5" s="2">
         <v>0.58691939223213252</v>
       </c>
-      <c r="C5" s="2">
-        <v>1.707723686961671</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.27213127782480528</v>
-      </c>
-      <c r="E5" s="2">
-        <v>9.9863143608258653E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2">
+        <v>2.860712739185312</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.253486399826653</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-0.39869079118077799</v>
+      </c>
+      <c r="F6" s="2">
         <v>0.78428194542402574</v>
       </c>
-      <c r="C6" s="2">
-        <v>2.860712739185312</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1.253486399826653</v>
-      </c>
-      <c r="E6" s="2">
-        <v>-0.39869079118077799</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2">
+        <v>2.1195892919778752</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.78624458320057933</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-0.65283597932390691</v>
+      </c>
+      <c r="F7" s="2">
         <v>0.35845948140662548</v>
       </c>
-      <c r="C7" s="2">
-        <v>2.1195892919778752</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.78624458320057933</v>
-      </c>
-      <c r="E7" s="2">
-        <v>-0.65283597932390691</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2">
+        <v>4.2233213426607357</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.42818574799806658</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.370300935622515E-2</v>
+      </c>
+      <c r="F8" s="2">
         <v>1.2834025102352651</v>
       </c>
-      <c r="C8" s="2">
-        <v>4.2233213426607357</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.42818574799806658</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1.370300935622515E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2">
+        <v>2.342867230716017</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.0049430179918659</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-0.192803026650612</v>
+      </c>
+      <c r="F9" s="2">
         <v>0.71434844095503713</v>
       </c>
-      <c r="C9" s="2">
-        <v>2.342867230716017</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.0049430179918659</v>
-      </c>
-      <c r="E9" s="2">
-        <v>-0.192803026650612</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2">
+        <v>2.3799817889047392</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.8406950642933411</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.23718619701516011</v>
+      </c>
+      <c r="F10" s="2">
         <v>1.09256885108171</v>
       </c>
-      <c r="C10" s="2">
-        <v>2.3799817889047392</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.8406950642933411</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.23718619701516011</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="2">
+        <v>1.316862064265945</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.7058747822433542</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.2571764566926551E-3</v>
+      </c>
+      <c r="F11" s="2">
         <v>0.48441158128207368</v>
       </c>
-      <c r="C11" s="2">
-        <v>1.316862064265945</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.7058747822433542</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1.2571764566926551E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="2">
+        <v>0.83564930597722631</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-5.192691727551324E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-0.15455353662503499</v>
+      </c>
+      <c r="F12" s="2">
         <v>0.14488041151633491</v>
       </c>
-      <c r="C12" s="2">
-        <v>0.83564930597722631</v>
-      </c>
-      <c r="D12" s="2">
-        <v>-5.192691727551324E-2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>-0.15455353662503499</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="2">
+        <v>0.42188442412083299</v>
+      </c>
+      <c r="C13" s="2">
+        <v>7.5399660253083756E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-0.17247161733580099</v>
+      </c>
+      <c r="F13" s="2">
         <v>3.522653684818744E-2</v>
       </c>
-      <c r="C13" s="2">
-        <v>0.42188442412083299</v>
-      </c>
-      <c r="D13" s="2">
-        <v>7.5399660253083756E-2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>-0.17247161733580099</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="2">
+        <v>0.90269950625524453</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-1.054596639989591</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-6.3088844392567012E-2</v>
+      </c>
+      <c r="F14" s="2">
         <v>6.5067687246989081E-2</v>
       </c>
-      <c r="C14" s="2">
-        <v>0.90269950625524453</v>
-      </c>
-      <c r="D14" s="2">
-        <v>-1.054596639989591</v>
-      </c>
-      <c r="E14" s="2">
-        <v>-6.3088844392567012E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="2">
+        <v>1.2710635031436659</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-1.4734627081512961</v>
+      </c>
+      <c r="D15" s="2">
+        <v>7.3547430825282589E-2</v>
+      </c>
+      <c r="F15" s="2">
         <v>0.1847680406052099</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1.2710635031436659</v>
-      </c>
-      <c r="D15" s="2">
-        <v>-1.4734627081512961</v>
-      </c>
-      <c r="E15" s="2">
-        <v>7.3547430825282589E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Dados/R2_IS_normal.xlsx
+++ b/Dados/R2_IS_normal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Datathon_2023\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA602F31-C238-4837-B208-E01AB06EEF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E334F9D1-CB9C-4A26-AAFA-AA4B51B9A742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="19185" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Fear</t>
-  </si>
-  <si>
-    <t>Greed</t>
-  </si>
-  <si>
-    <t>Neutral</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Total</t>
   </si>
@@ -75,6 +66,78 @@
   <si>
     <t>VOL(3,12)</t>
   </si>
+  <si>
+    <t>Ind. Técnico</t>
+  </si>
+  <si>
+    <r>
+      <t>R²</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>FEAR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> (%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R²</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NEUTRAL</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> (%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R²</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>GREED</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> (%)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -83,7 +146,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +158,19 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,18 +208,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF2D2D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -153,6 +237,1319 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R²FEAR (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="FF0000"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="C00000"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>MA(1,9)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MA(1,12)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MA(2,9)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MA(2,12)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MA(3,9)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MA(3,12)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MOM(9)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MOM(12)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>VOL(1,9)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>VOL(1,12)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>VOL(2,9)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>VOL(2,12)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>VOL(3,9)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>VOL(3,12)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.98036550556600544</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48791110365963292</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.207663652465051</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9863143608258653E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.39869079118077799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.65283597932390691</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.370300935622515E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.192803026650612</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23718619701516011</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2571764566926551E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.15455353662503499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.17247161733580099</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.3088844392567012E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.3547430825282589E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-03CA-4C39-9B6C-F0E358AEFF3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R²NEUTRAL (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="100000">
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="65000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="0">
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>MA(1,9)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MA(1,12)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MA(2,9)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MA(2,12)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MA(3,9)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MA(3,12)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MOM(9)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MOM(12)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>VOL(1,9)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>VOL(1,12)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>VOL(2,9)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>VOL(2,12)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>VOL(3,9)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>VOL(3,12)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-1.3166409934942001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96741160767189749</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52799045917972798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27213127782480528</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.253486399826653</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78624458320057933</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42818574799806658</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0049430179918699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8406950642933411</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7058747822433542</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.192691727551324E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5399660253083756E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.054596639989591</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.4734627081512961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-03CA-4C39-9B6C-F0E358AEFF3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R²GREED (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="100000">
+                  <a:srgbClr val="0070C0"/>
+                </a:gs>
+                <a:gs pos="0">
+                  <a:srgbClr val="00B0F0"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="tx2">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>MA(1,9)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MA(1,12)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MA(2,9)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MA(2,12)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MA(3,9)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MA(3,12)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MOM(9)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MOM(12)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>VOL(1,9)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>VOL(1,12)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>VOL(2,9)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>VOL(2,12)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>VOL(3,9)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>VOL(3,12)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2.086264925283432</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.169655869795672</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.486956932570793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.707723686961671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.860712739185312</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1195892919778752</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2233213426607357</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.342867230716017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3799817889047392</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.316862064265945</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83564930597722631</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.42188442412083299</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.90269950625524453</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2710635031436659</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-03CA-4C39-9B6C-F0E358AEFF3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="315"/>
+        <c:overlap val="-40"/>
+        <c:axId val="701528488"/>
+        <c:axId val="701526328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="701528488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="600000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="b" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="701526328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="0"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="701526328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="701528488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.77716542404311018"/>
+          <c:y val="4.1666666666666664E-2"/>
+          <c:w val="0.20352661096645788"/>
+          <c:h val="7.8125546806649182E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49794812-1566-FF2A-92B7-313DDED6F25D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,45 +1837,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>2.086264925283432</v>
+        <v>0.98036550556600544</v>
       </c>
       <c r="C2" s="2">
         <v>-1.3166409934942001</v>
       </c>
       <c r="D2" s="2">
-        <v>0.98036550556600544</v>
+        <v>2.086264925283432</v>
       </c>
       <c r="F2" s="2">
         <v>0.95270196557555309</v>
@@ -486,16 +1888,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>2.169655869795672</v>
+        <v>0.48791110365963292</v>
       </c>
       <c r="C3" s="2">
         <v>0.96741160767189749</v>
       </c>
       <c r="D3" s="2">
-        <v>0.48791110365963292</v>
+        <v>2.169655869795672</v>
       </c>
       <c r="F3" s="2">
         <v>1.0422881666931061</v>
@@ -503,16 +1905,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>1.486956932570793</v>
+        <v>-0.207663652465051</v>
       </c>
       <c r="C4" s="2">
         <v>0.52799045917972798</v>
       </c>
       <c r="D4" s="2">
-        <v>-0.207663652465051</v>
+        <v>1.486956932570793</v>
       </c>
       <c r="F4" s="2">
         <v>0.3888658214056262</v>
@@ -520,16 +1922,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>1.707723686961671</v>
+        <v>9.9863143608258653E-2</v>
       </c>
       <c r="C5" s="2">
         <v>0.27213127782480528</v>
       </c>
       <c r="D5" s="2">
-        <v>9.9863143608258653E-2</v>
+        <v>1.707723686961671</v>
       </c>
       <c r="F5" s="2">
         <v>0.58691939223213252</v>
@@ -537,16 +1939,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>2.860712739185312</v>
+        <v>-0.39869079118077799</v>
       </c>
       <c r="C6" s="2">
         <v>1.253486399826653</v>
       </c>
       <c r="D6" s="2">
-        <v>-0.39869079118077799</v>
+        <v>2.860712739185312</v>
       </c>
       <c r="F6" s="2">
         <v>0.78428194542402574</v>
@@ -554,16 +1956,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>2.1195892919778752</v>
+        <v>-0.65283597932390691</v>
       </c>
       <c r="C7" s="2">
         <v>0.78624458320057933</v>
       </c>
       <c r="D7" s="2">
-        <v>-0.65283597932390691</v>
+        <v>2.1195892919778752</v>
       </c>
       <c r="F7" s="2">
         <v>0.35845948140662548</v>
@@ -571,16 +1973,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>4.2233213426607357</v>
+        <v>1.370300935622515E-2</v>
       </c>
       <c r="C8" s="2">
         <v>0.42818574799806658</v>
       </c>
       <c r="D8" s="2">
-        <v>1.370300935622515E-2</v>
+        <v>4.2233213426607357</v>
       </c>
       <c r="F8" s="2">
         <v>1.2834025102352651</v>
@@ -588,16 +1990,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
+        <v>-0.192803026650612</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.0049430179918699</v>
+      </c>
+      <c r="D9" s="2">
         <v>2.342867230716017</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1.0049430179918659</v>
-      </c>
-      <c r="D9" s="2">
-        <v>-0.192803026650612</v>
       </c>
       <c r="F9" s="2">
         <v>0.71434844095503713</v>
@@ -605,16 +2007,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>2.3799817889047392</v>
+        <v>0.23718619701516011</v>
       </c>
       <c r="C10" s="2">
         <v>1.8406950642933411</v>
       </c>
       <c r="D10" s="2">
-        <v>0.23718619701516011</v>
+        <v>2.3799817889047392</v>
       </c>
       <c r="F10" s="2">
         <v>1.09256885108171</v>
@@ -622,16 +2024,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>1.316862064265945</v>
+        <v>1.2571764566926551E-3</v>
       </c>
       <c r="C11" s="2">
         <v>0.7058747822433542</v>
       </c>
       <c r="D11" s="2">
-        <v>1.2571764566926551E-3</v>
+        <v>1.316862064265945</v>
       </c>
       <c r="F11" s="2">
         <v>0.48441158128207368</v>
@@ -639,16 +2041,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>0.83564930597722631</v>
+        <v>-0.15455353662503499</v>
       </c>
       <c r="C12" s="2">
         <v>-5.192691727551324E-2</v>
       </c>
       <c r="D12" s="2">
-        <v>-0.15455353662503499</v>
+        <v>0.83564930597722631</v>
       </c>
       <c r="F12" s="2">
         <v>0.14488041151633491</v>
@@ -656,16 +2058,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>0.42188442412083299</v>
+        <v>-0.17247161733580099</v>
       </c>
       <c r="C13" s="2">
         <v>7.5399660253083756E-2</v>
       </c>
       <c r="D13" s="2">
-        <v>-0.17247161733580099</v>
+        <v>0.42188442412083299</v>
       </c>
       <c r="F13" s="2">
         <v>3.522653684818744E-2</v>
@@ -673,16 +2075,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>0.90269950625524453</v>
+        <v>-6.3088844392567012E-2</v>
       </c>
       <c r="C14" s="2">
         <v>-1.054596639989591</v>
       </c>
       <c r="D14" s="2">
-        <v>-6.3088844392567012E-2</v>
+        <v>0.90269950625524453</v>
       </c>
       <c r="F14" s="2">
         <v>6.5067687246989081E-2</v>
@@ -690,22 +2092,65 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>1.2710635031436659</v>
+        <v>7.3547430825282589E-2</v>
       </c>
       <c r="C15" s="2">
         <v>-1.4734627081512961</v>
       </c>
       <c r="D15" s="2">
-        <v>7.3547430825282589E-2</v>
+        <v>1.2710635031436659</v>
       </c>
       <c r="F15" s="2">
         <v>0.1847680406052099</v>
       </c>
     </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>